--- a/Producto/Web/Casos de prueba/4.xlsx
+++ b/Producto/Web/Casos de prueba/4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -55,15 +55,6 @@
     <t>&lt;Playa1&gt; no existe en la base de datos y esta activa</t>
   </si>
   <si>
-    <t>&lt;Horario1&gt; con &lt;Dias1&gt; como dias, &lt;HorarioDesde1&gt; como horario desde y &lt;HorarioHasta1&gt; como horario hasta es un horario de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;TipoVehiculo1&gt; como tipo de vehiculo, &lt;TipoHorario1&gt; como tipo de horario, &lt;Dias1&gt; como dias y &lt;ValorPrecio1&gt; como precio es un precio de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NombrePlaya2&gt; es un nombre válido para un playa de estcionamiento</t>
-  </si>
-  <si>
     <t>volver</t>
   </si>
   <si>
@@ -106,30 +97,6 @@
     <t>La playa &lt;playa1&gt; está cargada en la base de datos</t>
   </si>
   <si>
-    <t>&lt;PlayaNombre1&gt; es el nombre de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Telefono1&gt; es el telefono de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;mail1&gt; es el mail de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tipoPlaya1&gt; es el tipo de playa de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;TipoVehiculo1&gt; es un tipo de vehiculo aceptado por &lt;Playa1&gt; y su capacidad es &lt;capacidad1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Domicilio1&gt; con &lt;Provincia1&gt; como provincia, &lt;Departamento1&gt; como departamento, &lt;Ciudad1&gt; como ciudad, &lt;Calle1&gt; como calle y &lt;Numero1&gt; como numero, es domicilio de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Domicilio2&gt; con &lt;Provincia1&gt; existe en la base de datos, &lt;Departamento1&gt; existe en la base de datos y pertenece a la provincia &lt;Provincia1&gt;, &lt;Ciudad1&gt; existe en la base de datos y pertenece al departamento &lt;Departamento1&gt;, &lt;Calle2&gt; es una calle valida y &lt;Numero2&gt; es un valor valido para numero, es domicilio valido para una playa de estacionamiento</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;PlayaNombre1&gt; en el campo nombre de playa</t>
-  </si>
-  <si>
     <t>Presiono el boton buscar</t>
   </si>
   <si>
@@ -145,21 +112,6 @@
     <t>Presiono el boton "mas" para agregar una nueva direccion</t>
   </si>
   <si>
-    <t>Selecciono &lt;Provincia1&gt; como provincia</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;Departamento1&gt; como departamento</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;Ciudad1&gt; como ciudad</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Calle2&gt; como calle</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Numero2&gt; como numero</t>
-  </si>
-  <si>
     <t>Presiono el boton que parece un tilde</t>
   </si>
   <si>
@@ -169,9 +121,6 @@
     <t>Presiono el boton guardar</t>
   </si>
   <si>
-    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento &lt;PlayaNombre1&gt;?"</t>
-  </si>
-  <si>
     <t>Selecciono la opcion "Si"</t>
   </si>
   <si>
@@ -179,13 +128,64 @@
   </si>
   <si>
     <t>Ignacio Frigerio [autor]</t>
+  </si>
+  <si>
+    <t>"CPA_Playa1" es el nombre de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "999999" es el telefono de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CPA_mail@CPA_mail" es el mail de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_TipoVehiculo1&gt; es un tipo de vehiculo aceptado por &lt;Playa1&gt; y su capacidad es &lt;capacidad1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CPA_TipoPlaya1&gt; es el tipo de playa de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Domicilio1&gt;, conla provincia &lt;Córdoba&gt; existe en la base de datos,  el departamento &lt;Capital&gt; existe en la base de datos y pertenece a  &lt;Córdoba&gt;, la ciudad &lt;Córdoba&gt; existe en la base de datos y pertenece al &lt;Capital&gt;, &lt;Calle1&gt; con nombre "Colon" es una calle valida y "9" es un valor valido para numero; es el domicilio de la &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Domicilio2&gt;, conla provincia &lt;Córdoba&gt; existe en la base de datos,  el departamento &lt;Capital&gt; existe en la base de datos y pertenece a  &lt;Córdoba&gt;, la ciudad &lt;Córdoba&gt; existe en la base de datos y pertenece al &lt;Capital&gt;, &lt;Calle1&gt; con nombre "Dean Funes" es una calle valida y "9" es un valor valido para numero; es domicilio valido para una playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>&lt;Horario1&gt; con &lt;CPA_DiasDeAtencion1&gt; como dias, "00:00" como horario desde y "23:59" hasta es un horario de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;CPA_TipoVehiculo1&gt; como tipo de vehiculo, &lt;CPA_TipoHorario1&gt; como tipo de horario, &lt;CPA_DiasDeAtencion1&gt; como dias y "9" como precio es un precio de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>"CPA_Playa2" es un nombre válido para una playa de estcionamiento</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>Selecciono "Córdoba" como provincia</t>
+  </si>
+  <si>
+    <t>Selecciono "Capital"  como departamento</t>
+  </si>
+  <si>
+    <t>Selecciono "Córdoba" como ciudad</t>
+  </si>
+  <si>
+    <t>Ingreso Dean Funes como calle</t>
+  </si>
+  <si>
+    <t>Ingreso 9 como numero</t>
+  </si>
+  <si>
+    <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento CPA_Playa1?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +445,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -480,7 +479,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,44 +654,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -701,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -718,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -736,20 +734,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -757,10 +755,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -768,90 +766,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102.75" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="51.75" thickBot="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -863,21 +861,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -888,142 +886,142 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1035,14 +1033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1050,26 +1048,26 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8">
         <v>41788</v>
@@ -1078,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Producto/Web/Casos de prueba/4.xlsx
+++ b/Producto/Web/Casos de prueba/4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -163,22 +163,16 @@
     <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
   </si>
   <si>
-    <t>Selecciono "Córdoba" como provincia</t>
-  </si>
-  <si>
-    <t>Selecciono "Capital"  como departamento</t>
-  </si>
-  <si>
-    <t>Selecciono "Córdoba" como ciudad</t>
-  </si>
-  <si>
-    <t>Ingreso Dean Funes como calle</t>
-  </si>
-  <si>
-    <t>Ingreso 9 como numero</t>
-  </si>
-  <si>
     <t>Se muestra el mensaje "Está seguro que desea guardar los cambios en la playa de estacionamiento CPA_Playa1?</t>
+  </si>
+  <si>
+    <t>Se muestra el formulario para ingresar una nueva direccion, con los combos de provincia, departamento y ciudad ya seleccionados y no permiten editar</t>
+  </si>
+  <si>
+    <t>Ingreso Colon como calle</t>
+  </si>
+  <si>
+    <t>Ingreso 4750 como numero</t>
   </si>
 </sst>
 </file>
@@ -862,10 +856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -935,92 +929,66 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+    <row r="6" spans="1:4" ht="51.75" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
